--- a/projekt 2 rekonstrukcja/wyniki.xlsx
+++ b/projekt 2 rekonstrukcja/wyniki.xlsx
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="B57" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C57" s="5" t="n">
         <v>0.524074074074074</v>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="B58" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C58" s="5" t="n">
         <v>0.4746899932723104</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="B59" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C59" s="5" t="n">
         <v>0.5156686444254853</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="B60" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C60" s="5" t="n">
         <v>0.4746899932723104</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="B61" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C61" s="5" t="n">
         <v>0.4808396826380378</v>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="B62" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C62" s="5" t="n">
         <v>0.07073883512128931</v>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B83" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C83" s="5" t="n">
         <v>0.5666666666666668</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B84" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C84" s="5" t="n">
         <v>0.531992675346334</v>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="B85" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C85" s="5" t="n">
         <v>0.5249100953263883</v>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="B86" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C86" s="5" t="n">
         <v>0.531992675346334</v>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="B87" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C87" s="5" t="n">
         <v>0.519748946806536</v>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="B88" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C88" s="5" t="n">
         <v>0.05178136163095495</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B135" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C135" s="5" t="n">
         <v>0.5185185185185185</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="B136" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C136" s="5" t="n">
         <v>0.5365791948566337</v>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B137" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C137" s="5" t="n">
         <v>0.5268045989791136</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="B138" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C138" s="5" t="n">
         <v>0.5365791948566337</v>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B139" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C139" s="5" t="n">
         <v>0.5114823834768938</v>
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="B140" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C140" s="5" t="n">
         <v>0.03453330130664654</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="B148" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C148" s="5" t="n">
         <v>0.4462962962962964</v>
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="B149" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C149" s="5" t="n">
         <v>0.471438493755567</v>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="B150" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C150" s="5" t="n">
         <v>0.4664044852364333</v>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="B151" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C151" s="5" t="n">
         <v>0.471438493755567</v>
@@ -2790,7 +2790,7 @@
         </is>
       </c>
       <c r="B152" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C152" s="5" t="n">
         <v>0.4472248473499691</v>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="B153" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C153" s="5" t="n">
         <v>0.08498944703859297</v>
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="B252" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C252" s="5" t="n">
         <v>0.6277777777777778</v>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="B253" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C253" s="5" t="n">
         <v>0.5926283354179697</v>
@@ -4324,7 +4324,7 @@
         </is>
       </c>
       <c r="B254" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C254" s="5" t="n">
         <v>0.6141641408769752</v>
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="B255" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C255" s="5" t="n">
         <v>0.5926283354179697</v>
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="B256" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C256" s="5" t="n">
         <v>0.5796806721453438</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="B257" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C257" s="5" t="n">
         <v>0.04302406343023818</v>
@@ -4670,7 +4670,7 @@
         </is>
       </c>
       <c r="B278" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C278" s="5" t="n">
         <v>0.5870370370370371</v>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="B279" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C279" s="5" t="n">
         <v>0.5076479736388273</v>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="B280" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C280" s="5" t="n">
         <v>0.5687275419208763</v>
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="B281" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C281" s="5" t="n">
         <v>0.5076479736388273</v>
@@ -4770,7 +4770,7 @@
         </is>
       </c>
       <c r="B282" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C282" s="5" t="n">
         <v>0.5159716098444885</v>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="B283" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C283" s="5" t="n">
         <v>0.05667054660367278</v>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B330" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C330" s="5" t="n">
         <v>0.3166666666666667</v>
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="B331" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C331" s="5" t="n">
         <v>0.4066962069096215</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="B332" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C332" s="5" t="n">
         <v>0.4975967662384803</v>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="B333" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C333" s="5" t="n">
         <v>0.4066962069096215</v>
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="B334" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C334" s="5" t="n">
         <v>0.343860910242592</v>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="B335" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C335" s="5" t="n">
         <v>0.09929691895623539</v>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="B343" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C343" s="5" t="n">
         <v>0.3111111111111111</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="B344" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C344" s="5" t="n">
         <v>0.411497976955294</v>
@@ -5710,7 +5710,7 @@
         </is>
       </c>
       <c r="B345" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C345" s="5" t="n">
         <v>0.411521553285031</v>
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="B346" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C346" s="5" t="n">
         <v>0.411497976955294</v>
@@ -5760,7 +5760,7 @@
         </is>
       </c>
       <c r="B347" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C347" s="5" t="n">
         <v>0.336937963531349</v>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="B348" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C348" s="5" t="n">
         <v>0.1115731349244646</v>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="B447" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C447" s="5" t="n">
         <v>0.7166666666666667</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="B448" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C448" s="5" t="n">
         <v>0.6724746053404589</v>
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="B449" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C449" s="5" t="n">
         <v>0.732518403021586</v>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="B450" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C450" s="5" t="n">
         <v>0.6724746053404589</v>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="B451" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C451" s="5" t="n">
         <v>0.6540172526699499</v>
@@ -7369,7 +7369,7 @@
         </is>
       </c>
       <c r="B452" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C452" s="5" t="n">
         <v>0.06468551409207893</v>
@@ -7640,7 +7640,7 @@
         </is>
       </c>
       <c r="B473" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C473" s="5" t="n">
         <v>0.6870370370370371</v>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="B474" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C474" s="5" t="n">
         <v>0.6086449390717683</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="B475" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C475" s="5" t="n">
         <v>0.6028744782506247</v>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="B476" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C476" s="5" t="n">
         <v>0.6086449390717683</v>
@@ -7740,7 +7740,7 @@
         </is>
       </c>
       <c r="B477" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C477" s="5" t="n">
         <v>0.5803714727683975</v>
@@ -7765,7 +7765,7 @@
         </is>
       </c>
       <c r="B478" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C478" s="5" t="n">
         <v>0.03836184828269393</v>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="B525" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C525" s="5" t="n">
         <v>0.6351851851851852</v>
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="B526" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C526" s="5" t="n">
         <v>0.6598944652908066</v>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="B527" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C527" s="5" t="n">
         <v>0.6090337351405463</v>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="B528" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C528" s="5" t="n">
         <v>0.6598944652908066</v>
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="B529" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C529" s="5" t="n">
         <v>0.6097832711788357</v>
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="B530" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C530" s="5" t="n">
         <v>0.01889436318263867</v>
@@ -8630,7 +8630,7 @@
         </is>
       </c>
       <c r="B538" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C538" s="5" t="n">
         <v>0.6462962962962963</v>
@@ -8655,7 +8655,7 @@
         </is>
       </c>
       <c r="B539" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C539" s="5" t="n">
         <v>0.6657300490837076</v>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="B540" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C540" s="5" t="n">
         <v>0.6151263493220546</v>
@@ -8705,7 +8705,7 @@
         </is>
       </c>
       <c r="B541" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C541" s="5" t="n">
         <v>0.6657300490837076</v>
@@ -8730,7 +8730,7 @@
         </is>
       </c>
       <c r="B542" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C542" s="5" t="n">
         <v>0.6229083030801893</v>
@@ -8755,7 +8755,7 @@
         </is>
       </c>
       <c r="B543" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C543" s="5" t="n">
         <v>0.05149705061769751</v>
@@ -10214,7 +10214,7 @@
         </is>
       </c>
       <c r="B642" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C642" s="5" t="n">
         <v>0.6796296296296296</v>
@@ -10239,7 +10239,7 @@
         </is>
       </c>
       <c r="B643" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C643" s="5" t="n">
         <v>0.6087224377925597</v>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="B644" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C644" s="5" t="n">
         <v>0.6401049393315296</v>
@@ -10289,7 +10289,7 @@
         </is>
       </c>
       <c r="B645" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C645" s="5" t="n">
         <v>0.6087224377925597</v>
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="B646" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C646" s="5" t="n">
         <v>0.597730350721603</v>
@@ -10339,7 +10339,7 @@
         </is>
       </c>
       <c r="B647" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C647" s="5" t="n">
         <v>0.07855766416945939</v>
@@ -10610,7 +10610,7 @@
         </is>
       </c>
       <c r="B668" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C668" s="5" t="n">
         <v>0.6574074074074073</v>
@@ -10635,7 +10635,7 @@
         </is>
       </c>
       <c r="B669" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C669" s="5" t="n">
         <v>0.5886606330661208</v>
@@ -10660,7 +10660,7 @@
         </is>
       </c>
       <c r="B670" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C670" s="5" t="n">
         <v>0.5957269440058027</v>
@@ -10685,7 +10685,7 @@
         </is>
       </c>
       <c r="B671" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C671" s="5" t="n">
         <v>0.5886606330661208</v>
@@ -10710,7 +10710,7 @@
         </is>
       </c>
       <c r="B672" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C672" s="5" t="n">
         <v>0.5738082049651797</v>
@@ -10735,7 +10735,7 @@
         </is>
       </c>
       <c r="B673" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C673" s="5" t="n">
         <v>0.02301146077665683</v>
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="B720" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C720" s="5" t="n">
         <v>0.5759259259259258</v>
@@ -11427,7 +11427,7 @@
         </is>
       </c>
       <c r="B721" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C721" s="5" t="n">
         <v>0.6070067940189892</v>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="B722" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C722" s="5" t="n">
         <v>0.5580532329293575</v>
@@ -11477,7 +11477,7 @@
         </is>
       </c>
       <c r="B723" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C723" s="5" t="n">
         <v>0.6070067940189892</v>
@@ -11502,7 +11502,7 @@
         </is>
       </c>
       <c r="B724" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C724" s="5" t="n">
         <v>0.5579079596625255</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="B725" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C725" s="5" t="n">
         <v>0.03167650039264962</v>
@@ -11600,7 +11600,7 @@
         </is>
       </c>
       <c r="B733" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C733" s="5" t="n">
         <v>0.5574074074074074</v>
@@ -11625,7 +11625,7 @@
         </is>
       </c>
       <c r="B734" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C734" s="5" t="n">
         <v>0.5728992196827563</v>
@@ -11650,7 +11650,7 @@
         </is>
       </c>
       <c r="B735" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C735" s="5" t="n">
         <v>0.5303368389575628</v>
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="B736" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C736" s="5" t="n">
         <v>0.5728992196827563</v>
@@ -11700,7 +11700,7 @@
         </is>
       </c>
       <c r="B737" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C737" s="5" t="n">
         <v>0.5244826297169992</v>
@@ -11725,7 +11725,7 @@
         </is>
       </c>
       <c r="B738" s="5" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="C738" s="5" t="n">
         <v>0.06019796641942154</v>
